--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_42/metrics/Trial_250__Reeval_LHS_Modell_2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_42/metrics/Trial_250__Reeval_LHS_Modell_2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>True Values Train</t>
   </si>
@@ -35,10 +35,10 @@
     <t>Predictions Test</t>
   </si>
   <si>
-    <t>Chart_Y</t>
+    <t>Chart_X</t>
   </si>
   <si>
-    <t>Chart_X</t>
+    <t>Chart_Y</t>
   </si>
   <si>
     <t>Epoch</t>
@@ -5818,7 +5818,7 @@
                   <c:v>356.9697570800781</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>355.488037109375</c:v>
+                  <c:v>355.4880065917969</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>354.3371887207031</c:v>
@@ -5863,7 +5863,7 @@
                   <c:v>355.4796752929688</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>356.9252624511719</c:v>
+                  <c:v>356.9252319335938</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>358.0651245117188</c:v>
@@ -5953,13 +5953,13 @@
                   <c:v>351.7395629882812</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>351.5885620117188</c:v>
+                  <c:v>351.5885925292969</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>356.9285583496094</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>349.648681640625</c:v>
+                  <c:v>349.6486511230469</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>353.2282409667969</c:v>
@@ -6073,7 +6073,7 @@
                   <c:v>341.5474548339844</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>355.4943542480469</c:v>
+                  <c:v>355.494384765625</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>356.92626953125</c:v>
@@ -6088,7 +6088,7 @@
                   <c:v>349.298828125</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>336.0736389160156</c:v>
+                  <c:v>336.0736694335938</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>353.5429077148438</c:v>
@@ -6097,7 +6097,7 @@
                   <c:v>349.3063049316406</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>357.3991394042969</c:v>
+                  <c:v>357.399169921875</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>355.9767150878906</c:v>
@@ -6106,7 +6106,7 @@
                   <c:v>358.5955505371094</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>355.4819030761719</c:v>
+                  <c:v>355.4818725585938</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6131,7 +6131,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$2:$H$3</c:f>
+              <c:f>All_Data!$R$2:$R$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6146,7 +6146,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$2:$G$3</c:f>
+              <c:f>All_Data!$S$2:$S$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6175,7 +6175,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$4:$H$5</c:f>
+              <c:f>All_Data!$R$4:$R$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6190,7 +6190,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$4:$G$5</c:f>
+              <c:f>All_Data!$S$4:$S$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6219,7 +6219,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$6:$H$7</c:f>
+              <c:f>All_Data!$R$6:$R$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6234,7 +6234,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$6:$G$7</c:f>
+              <c:f>All_Data!$S$6:$S$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6746,13 +6746,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H777"/>
+  <dimension ref="A1:S777"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6777,8 +6777,14 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="R1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>355.739</v>
       </c>
@@ -6803,8 +6809,14 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>359.326</v>
       </c>
@@ -6821,7 +6833,7 @@
         <v>364.55</v>
       </c>
       <c r="F3">
-        <v>355.488037109375</v>
+        <v>355.4880065917969</v>
       </c>
       <c r="G3">
         <v>371</v>
@@ -6829,8 +6841,14 @@
       <c r="H3">
         <v>371</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="R3">
+        <v>371</v>
+      </c>
+      <c r="S3">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>340.662</v>
       </c>
@@ -6850,13 +6868,19 @@
         <v>354.3371887207031</v>
       </c>
       <c r="G4">
+        <v>371</v>
+      </c>
+      <c r="H4">
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="R4">
         <v>371</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>336.328</v>
       </c>
@@ -6881,8 +6905,14 @@
       <c r="H5">
         <v>371</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="R5">
+        <v>371</v>
+      </c>
+      <c r="S5">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>341.263</v>
       </c>
@@ -6902,13 +6932,19 @@
         <v>356.9943542480469</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>371</v>
       </c>
-      <c r="H6">
+      <c r="R6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="S6">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>358.25</v>
       </c>
@@ -6933,8 +6969,14 @@
       <c r="H7">
         <v>371</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="R7">
+        <v>371</v>
+      </c>
+      <c r="S7">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>355.891</v>
       </c>
@@ -6954,7 +6996,7 @@
         <v>339.9984741210938</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>340.957</v>
       </c>
@@ -6974,7 +7016,7 @@
         <v>349.3799438476562</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>365.59</v>
       </c>
@@ -6994,7 +7036,7 @@
         <v>341.3368530273438</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>359.512</v>
       </c>
@@ -7014,7 +7056,7 @@
         <v>361.9004821777344</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>349.72</v>
       </c>
@@ -7034,7 +7076,7 @@
         <v>352.1584167480469</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>355.672</v>
       </c>
@@ -7054,7 +7096,7 @@
         <v>343.643310546875</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>359.602</v>
       </c>
@@ -7074,7 +7116,7 @@
         <v>360.6106872558594</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>361.211</v>
       </c>
@@ -7094,7 +7136,7 @@
         <v>341.7647399902344</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>330.866</v>
       </c>
@@ -7151,7 +7193,7 @@
         <v>361.391</v>
       </c>
       <c r="F18">
-        <v>356.9252624511719</v>
+        <v>356.9252319335938</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7751,7 +7793,7 @@
         <v>358.669</v>
       </c>
       <c r="F48">
-        <v>351.5885620117188</v>
+        <v>351.5885925292969</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7791,7 +7833,7 @@
         <v>361.985</v>
       </c>
       <c r="F50">
-        <v>349.648681640625</v>
+        <v>349.6486511230469</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8551,7 +8593,7 @@
         <v>362.757</v>
       </c>
       <c r="F88">
-        <v>355.4943542480469</v>
+        <v>355.494384765625</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8651,7 +8693,7 @@
         <v>338.571</v>
       </c>
       <c r="F93">
-        <v>336.0736389160156</v>
+        <v>336.0736694335938</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8711,7 +8753,7 @@
         <v>358.554</v>
       </c>
       <c r="F96">
-        <v>357.3991394042969</v>
+        <v>357.399169921875</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -8765,7 +8807,7 @@
         <v>358.898</v>
       </c>
       <c r="F99">
-        <v>355.4819030761719</v>
+        <v>355.4818725585938</v>
       </c>
     </row>
     <row r="100" spans="1:6">
